--- a/BCG Matrix Godrej Group by R.Naven.xlsx
+++ b/BCG Matrix Godrej Group by R.Naven.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BITS Pilani\Semester 2\Strategic management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A75E4CD-08C5-444B-ADFC-67DF2E8621E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62BF35B-6C65-4AA2-B220-524CBBD4E50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -128,7 +126,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -200,12 +198,12 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -814,7 +812,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.1428571428571428</c:v>
@@ -865,13 +863,13 @@
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.05</c:v>
+                  <c:v>0.14499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.06</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.05</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7.0000000000000007E-2</c:v>
@@ -2128,6 +2126,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>550332</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>206980</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925A7BB5-F56F-6B16-0194-19C6AFDBABCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9383888" y="3880556"/>
+          <a:ext cx="8461981" cy="6968332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2397,7 +2439,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2463,7 +2505,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>0.11</v>
+        <v>0.42</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>15</v>
@@ -2473,7 +2515,7 @@
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E11" si="0">(B3/D3)</f>
-        <v>0.44</v>
+        <v>1.68</v>
       </c>
       <c r="F3" s="3">
         <v>0.22</v>
@@ -2572,7 +2614,7 @@
         <v>0.95600000000000007</v>
       </c>
       <c r="F7" s="3">
-        <v>0.05</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="G7" s="6">
         <v>860</v>
@@ -2596,7 +2638,7 @@
         <v>0.3</v>
       </c>
       <c r="F8" s="3">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="G8" s="6">
         <v>1700</v>
@@ -2620,7 +2662,7 @@
         <v>0.10153846153846154</v>
       </c>
       <c r="F9" s="3">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="G9" s="5">
         <v>1600</v>
